--- a/config_Release/fish_gun_config.xlsx
+++ b/config_Release/fish_gun_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -693,9 +693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1801,7 +1801,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>29</v>
@@ -1834,7 +1834,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="5">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>26</v>
@@ -1867,7 +1867,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="5">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>27</v>
@@ -1900,7 +1900,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="5">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>28</v>
@@ -1933,7 +1933,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>7</v>
@@ -1968,7 +1968,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="5">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>8</v>
@@ -2003,7 +2003,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="5">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>9</v>
@@ -2038,7 +2038,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="5">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>10</v>
@@ -2073,7 +2073,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="5">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>11</v>
@@ -2108,7 +2108,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="5">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>12</v>
@@ -2143,7 +2143,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="5">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>13</v>
@@ -2178,7 +2178,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="5">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>13</v>
@@ -2213,7 +2213,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="5">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>14</v>
